--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\allis\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damlanurimirzalioglu/Documents/GitHub/ETLR24-25/experiment/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0D5CC1-DE04-402F-86C6-8B6900D87D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F672C2-3DE3-F842-93E1-908324B85C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6993E276-1128-4FB1-AE72-42BAD3276BF4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{6993E276-1128-4FB1-AE72-42BAD3276BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
   <si>
     <t>Subject</t>
   </si>
@@ -340,6 +340,30 @@
   </si>
   <si>
     <t>Study ID</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Farsi</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
   </si>
 </sst>
 </file>
@@ -619,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -681,6 +705,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,20 +1060,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EBF8A0-C787-4D2F-BD5A-F3B9360A1CA1}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,202 +1099,346 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>72.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>82.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="27">
+        <v>73.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="27">
+        <v>72.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>47.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>68.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>67.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>67.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>62.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1266,16 +1453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D2478-9168-487D-98A1-BDA7694BD8E6}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>96</v>
       </c>
@@ -1292,687 +1479,690 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45677.755439814813</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>45678.654305555552</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="26">
+        <v>61.25</v>
+      </c>
+      <c r="E3" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>45680.740162037036</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="25">
+        <v>61.25</v>
+      </c>
+      <c r="E4" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>45680.740995370368</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="26">
+        <v>82.5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>45680.742083333331</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="25">
+        <v>77.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>45680.743252314816</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="26">
+        <v>57.5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>45681.411643518521</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="25">
+        <v>66.25</v>
+      </c>
+      <c r="E8" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>45681.472037037034</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="26">
+        <v>91.25</v>
+      </c>
+      <c r="E9" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>45685.754340277781</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="25">
+        <v>70</v>
+      </c>
+      <c r="E10" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>45685.753680555557</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="26">
+        <v>65</v>
+      </c>
+      <c r="E11" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>45687.719953703701</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="25">
+        <v>81.25</v>
+      </c>
+      <c r="E12" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45673.629641203705</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="13">
+        <v>72.5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>45677.460659722223</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="25">
+        <v>82.5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>45677.523275462961</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>45678.48810185185</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>45684.532476851855</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="26">
+        <v>75</v>
+      </c>
+      <c r="E17" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45686.49732638889</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="11">
+        <v>47.5</v>
+      </c>
+      <c r="E18" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45686.688263888886</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="13">
+        <v>68.75</v>
+      </c>
+      <c r="E19" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45687.487847222219</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11">
+        <v>67.5</v>
+      </c>
+      <c r="E20" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45687.524340277778</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="13">
+        <v>67.5</v>
+      </c>
+      <c r="E21" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45687.582777777781</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="11">
+        <v>62.5</v>
+      </c>
+      <c r="E22" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45671.690462962964</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>45673.419293981482</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="25">
+        <v>75</v>
+      </c>
+      <c r="E24" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>45673.503495370373</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="26">
+        <v>81.25</v>
+      </c>
+      <c r="E25" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>45674.459953703707</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="11">
+        <v>73.75</v>
+      </c>
+      <c r="E26" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45674.526574074072</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="13">
+        <v>85</v>
+      </c>
+      <c r="E27" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>45679.499490740738</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="25">
+        <v>86.25</v>
+      </c>
+      <c r="E28" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>45679.591782407406</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="26">
+        <v>77.5</v>
+      </c>
+      <c r="E29" s="12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>45691.46534722222</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="11">
+        <v>62.5</v>
+      </c>
+      <c r="E30" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45693.452581018515</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="13">
+        <v>60</v>
+      </c>
+      <c r="E31" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>45670.670335648145</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D32" s="11">
         <v>80</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E32" s="12">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>45671.690462962964</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="8">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="33" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
         <v>45672.732951388891</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B33" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C33" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D33" s="26">
         <v>72.5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E33" s="12">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>45673.419293981482</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="13">
-        <v>75</v>
-      </c>
-      <c r="E5" s="8">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>45673.503495370373</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="11">
-        <v>81.25</v>
-      </c>
-      <c r="E6" s="12">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>45673.629641203705</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="13">
-        <v>72.5</v>
-      </c>
-      <c r="E7" s="8">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>45674.459953703707</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="11">
-        <v>73.75</v>
-      </c>
-      <c r="E8" s="12">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>45674.526574074072</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="13">
+    <row r="34" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>45674.766388888886</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="11">
         <v>85</v>
       </c>
-      <c r="E9" s="8">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>45674.766388888886</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="E34" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45677.606435185182</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="11">
-        <v>85</v>
-      </c>
-      <c r="E10" s="12">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>45677.460659722223</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="13">
-        <v>82.5</v>
-      </c>
-      <c r="E11" s="8">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>45677.523275462961</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="12">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>45677.606435185182</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D35" s="13">
+        <v>100</v>
+      </c>
+      <c r="E35" s="8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>45679.67732638889</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="13">
-        <v>100</v>
-      </c>
-      <c r="E13" s="8">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>45677.755439814813</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="11">
-        <v>75</v>
-      </c>
-      <c r="E14" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>45678.48810185185</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="8">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>45678.654305555552</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="11">
-        <v>61.25</v>
-      </c>
-      <c r="E16" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>45679.499490740738</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="13">
-        <v>86.25</v>
-      </c>
-      <c r="E17" s="8">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>45679.591782407406</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="D36" s="25">
+        <v>92.5</v>
+      </c>
+      <c r="E36" s="8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>45680.662210648145</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="26">
+        <v>80</v>
+      </c>
+      <c r="E37" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>45684.414097222223</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="25">
+        <v>87.5</v>
+      </c>
+      <c r="E38" s="8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>45684.611168981479</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="13">
+        <v>92.5</v>
+      </c>
+      <c r="E39" s="8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>45684.748101851852</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="11">
+        <v>63.75</v>
+      </c>
+      <c r="E40" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>45685.404004629629</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="16">
         <v>77.5</v>
       </c>
-      <c r="E18" s="12">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>45679.67732638889</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="13">
-        <v>92.5</v>
-      </c>
-      <c r="E19" s="8">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>45680.662210648145</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="11">
-        <v>80</v>
-      </c>
-      <c r="E20" s="12">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>45680.740162037036</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="13">
-        <v>61.25</v>
-      </c>
-      <c r="E21" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>45680.740995370368</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="11">
-        <v>82.5</v>
-      </c>
-      <c r="E22" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>45680.742083333331</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="13">
-        <v>77.5</v>
-      </c>
-      <c r="E23" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>45680.743252314816</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="11">
-        <v>57.5</v>
-      </c>
-      <c r="E24" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>45681.411643518521</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="13">
-        <v>66.25</v>
-      </c>
-      <c r="E25" s="8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>45681.472037037034</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="11">
-        <v>91.25</v>
-      </c>
-      <c r="E26" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>45684.414097222223</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="13">
-        <v>87.5</v>
-      </c>
-      <c r="E27" s="8">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>45684.532476851855</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="11">
-        <v>75</v>
-      </c>
-      <c r="E28" s="12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>45684.611168981479</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="13">
-        <v>92.5</v>
-      </c>
-      <c r="E29" s="8">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>45684.748101851852</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="11">
-        <v>63.75</v>
-      </c>
-      <c r="E30" s="12">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>45685.404004629629</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="13">
-        <v>77.5</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="E41" s="17">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>45685.753680555557</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="11">
-        <v>65</v>
-      </c>
-      <c r="E32" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>45685.754340277781</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="13">
-        <v>70</v>
-      </c>
-      <c r="E33" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>45686.49732638889</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="11">
-        <v>47.5</v>
-      </c>
-      <c r="E34" s="12">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>45686.688263888886</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="13">
-        <v>68.75</v>
-      </c>
-      <c r="E35" s="8">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>45687.487847222219</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="11">
-        <v>67.5</v>
-      </c>
-      <c r="E36" s="12">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>45687.524340277778</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="13">
-        <v>67.5</v>
-      </c>
-      <c r="E37" s="8">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>45687.582777777781</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="11">
-        <v>62.5</v>
-      </c>
-      <c r="E38" s="12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>45687.719953703701</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="13">
-        <v>81.25</v>
-      </c>
-      <c r="E39" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>45691.46534722222</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="11">
-        <v>62.5</v>
-      </c>
-      <c r="E40" s="12">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
-        <v>45693.452581018515</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="16">
-        <v>60</v>
-      </c>
-      <c r="E41" s="17">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+    <sortCondition ref="E1:E41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damlanurimirzalioglu/Documents/GitHub/ETLR24-25/experiment/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F672C2-3DE3-F842-93E1-908324B85C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1818D5CF-4558-A64A-9B26-F80A3980382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{6993E276-1128-4FB1-AE72-42BAD3276BF4}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -723,7 +723,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,7 +1060,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1142,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4">
         <v>73.75</v>
       </c>
       <c r="E4" t="s">
@@ -1163,7 +1162,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5">
         <v>72.5</v>
       </c>
       <c r="E5" t="s">
@@ -1208,6 +1207,12 @@
       </c>
       <c r="E7" t="s">
         <v>102</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>106</v>
@@ -1453,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D2478-9168-487D-98A1-BDA7694BD8E6}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A15" zoomScale="207" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1462,7 +1467,7 @@
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="66" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>96</v>
       </c>

--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damlanurimirzalioglu/Documents/GitHub/ETLR24-25/experiment/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saphi\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1818D5CF-4558-A64A-9B26-F80A3980382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335F8199-CDD5-4C44-9C3E-D52AC683218A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{6993E276-1128-4FB1-AE72-42BAD3276BF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6993E276-1128-4FB1-AE72-42BAD3276BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="111">
   <si>
     <t>Subject</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>German</t>
   </si>
 </sst>
 </file>
@@ -1059,20 +1065,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EBF8A0-C787-4D2F-BD5A-F3B9360A1CA1}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1298,152 +1304,287 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>81.25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>73.75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16">
+        <v>23</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>86.25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>77.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>62.5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1458,16 +1599,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D2478-9168-487D-98A1-BDA7694BD8E6}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="207" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A26" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>96</v>
       </c>
@@ -1484,7 +1625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45677.755439814813</v>
       </c>
@@ -1501,7 +1642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>45678.654305555552</v>
       </c>
@@ -1518,7 +1659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>45680.740162037036</v>
       </c>
@@ -1535,7 +1676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>45680.740995370368</v>
       </c>
@@ -1552,7 +1693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>45680.742083333331</v>
       </c>
@@ -1569,7 +1710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>45680.743252314816</v>
       </c>
@@ -1586,7 +1727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>45681.411643518521</v>
       </c>
@@ -1603,7 +1744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>45681.472037037034</v>
       </c>
@@ -1620,7 +1761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>45685.754340277781</v>
       </c>
@@ -1637,7 +1778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>45685.753680555557</v>
       </c>
@@ -1654,7 +1795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>45687.719953703701</v>
       </c>
@@ -1671,7 +1812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45673.629641203705</v>
       </c>
@@ -1688,7 +1829,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>45677.460659722223</v>
       </c>
@@ -1705,7 +1846,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>45677.523275462961</v>
       </c>
@@ -1722,7 +1863,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>45678.48810185185</v>
       </c>
@@ -1739,7 +1880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>45684.532476851855</v>
       </c>
@@ -1756,7 +1897,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>45686.49732638889</v>
       </c>
@@ -1773,7 +1914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>45686.688263888886</v>
       </c>
@@ -1790,7 +1931,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>45687.487847222219</v>
       </c>
@@ -1807,7 +1948,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>45687.524340277778</v>
       </c>
@@ -1824,7 +1965,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>45687.582777777781</v>
       </c>
@@ -1841,7 +1982,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>45671.690462962964</v>
       </c>
@@ -1858,7 +1999,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>45673.419293981482</v>
       </c>
@@ -1875,7 +2016,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>45673.503495370373</v>
       </c>
@@ -1892,7 +2033,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>45674.459953703707</v>
       </c>
@@ -1909,7 +2050,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>45674.526574074072</v>
       </c>
@@ -1926,7 +2067,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>45679.499490740738</v>
       </c>
@@ -1943,7 +2084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>45679.591782407406</v>
       </c>
@@ -1960,7 +2101,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>45691.46534722222</v>
       </c>
@@ -1977,7 +2118,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>45693.452581018515</v>
       </c>
@@ -1994,7 +2135,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>45670.670335648145</v>
       </c>
@@ -2011,7 +2152,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>45672.732951388891</v>
       </c>
@@ -2028,7 +2169,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>45674.766388888886</v>
       </c>
@@ -2045,7 +2186,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>45677.606435185182</v>
       </c>
@@ -2062,7 +2203,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>45679.67732638889</v>
       </c>
@@ -2079,7 +2220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>45680.662210648145</v>
       </c>
@@ -2096,7 +2237,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>45684.414097222223</v>
       </c>
@@ -2113,7 +2254,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>45684.611168981479</v>
       </c>
@@ -2130,7 +2271,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>45684.748101851852</v>
       </c>
@@ -2147,7 +2288,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>45685.404004629629</v>
       </c>

--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allis\OneDrive\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78C9AB-F870-4816-905B-4AA23FDDD50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6880"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>Subject</t>
   </si>
@@ -376,23 +382,32 @@
   </si>
   <si>
     <t>WH2S0MA14</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turkish </t>
+  </si>
+  <si>
+    <t>PERSIAN</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -408,159 +423,8 @@
       <name val="Roboto"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,194 +449,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -990,253 +668,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1316,63 +752,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1650,28 +1043,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="7.70833333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="7.703125" customWidth="1"/>
+    <col min="3" max="3" width="10.703125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.2833333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.1416666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.29296875" customWidth="1"/>
+    <col min="8" max="8" width="15.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1737,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1757,7 +1150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1797,7 +1190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1817,7 +1210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1837,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1857,7 +1250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +1270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1897,7 +1290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1917,7 +1310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1937,7 +1330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1957,7 +1350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1977,7 +1370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1997,7 +1390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2017,7 +1410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2037,7 +1430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2057,7 +1450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2077,342 +1470,520 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>61.25</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>82.5</v>
+      </c>
+      <c r="C24" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>77.5</v>
+      </c>
+      <c r="C25" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25">
+        <v>27</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>57.5</v>
+      </c>
+      <c r="C26" s="27">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26">
+        <v>28</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>66.25</v>
+      </c>
+      <c r="C27" s="27">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27">
+        <v>29</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>91.25</v>
+      </c>
+      <c r="C28">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>65</v>
+      </c>
+      <c r="C29" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>70</v>
+      </c>
+      <c r="C30" s="27">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="E30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30">
+        <v>23</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="B31">
+        <v>81.25</v>
+      </c>
+      <c r="C31" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31">
+        <v>27</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32">
         <v>80</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32">
         <v>63.75</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32">
         <v>56.25</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32">
         <v>28</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32">
         <v>10</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33">
         <v>72.5</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33">
         <v>38.75</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33">
         <v>93.75</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33">
         <v>24</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33">
         <v>7</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34">
         <v>85</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34">
         <v>48.75</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34">
         <v>68.75</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34">
         <v>25</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34">
         <v>5</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35">
         <v>100</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35">
         <v>68.75</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35">
         <v>75</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35">
         <v>23</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35">
         <v>4</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36">
         <v>92.5</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36">
         <v>43.75</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36">
         <v>25</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36">
         <v>23</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36">
         <v>10</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37">
         <v>80</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37">
         <v>71.25</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37">
         <v>100</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37">
         <v>27</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37">
         <v>5</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38">
         <v>87.5</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38">
         <v>51.25</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38">
         <v>93.75</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38">
         <v>25</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38">
         <v>6</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39">
         <v>92.5</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39">
         <v>68.75</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39">
         <v>87.5</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39">
         <v>27</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39">
         <v>8</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40">
         <v>63.75</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40">
         <v>36.25</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40">
         <v>93.75</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40">
         <v>27</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40">
         <v>5</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41">
         <v>77.5</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41">
         <v>58.75</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41">
         <v>93.75</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41">
         <v>26</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41">
         <v>7</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.425" customWidth="1"/>
+    <col min="1" max="1" width="14.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63.25" spans="1:5">
+    <row r="1" spans="1:5" ht="74" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2429,9 +2000,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:5">
+    <row r="2" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
-        <v>45677.7554398148</v>
+        <v>45677.755439814799</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>68</v>
@@ -2446,9 +2017,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="38.25" spans="1:5">
+    <row r="3" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
-        <v>45678.6543055556</v>
+        <v>45678.654305555603</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>70</v>
@@ -2463,7 +2034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="38.25" spans="1:5">
+    <row r="4" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>45680.740162037</v>
       </c>
@@ -2480,9 +2051,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="38.25" spans="1:5">
+    <row r="5" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
-        <v>45680.7409953704</v>
+        <v>45680.740995370397</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>71</v>
@@ -2497,9 +2068,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="38.25" spans="1:5">
+    <row r="6" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
-        <v>45680.7420833333</v>
+        <v>45680.742083333302</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>72</v>
@@ -2514,9 +2085,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="38.25" spans="1:5">
+    <row r="7" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
-        <v>45680.7432523148</v>
+        <v>45680.743252314802</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>73</v>
@@ -2531,9 +2102,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="38.25" spans="1:5">
+    <row r="8" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
-        <v>45681.4116435185</v>
+        <v>45681.411643518499</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>74</v>
@@ -2548,9 +2119,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="38.25" spans="1:5">
+    <row r="9" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
-        <v>45681.472037037</v>
+        <v>45681.472037036998</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>75</v>
@@ -2565,9 +2136,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="38.25" spans="1:5">
+    <row r="10" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
-        <v>45685.7543402778</v>
+        <v>45685.754340277803</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>77</v>
@@ -2582,9 +2153,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="38.25" spans="1:5">
+    <row r="11" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
-        <v>45685.7536805556</v>
+        <v>45685.753680555601</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>78</v>
@@ -2599,9 +2170,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="38.25" spans="1:5">
+    <row r="12" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
-        <v>45687.7199537037</v>
+        <v>45687.719953703701</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>79</v>
@@ -2616,9 +2187,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="38.25" spans="1:5">
+    <row r="13" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
-        <v>45673.6296412037</v>
+        <v>45673.629641203697</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>80</v>
@@ -2633,9 +2204,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" ht="38.25" spans="1:5">
+    <row r="14" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
-        <v>45677.4606597222</v>
+        <v>45677.460659722201</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>82</v>
@@ -2650,9 +2221,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" ht="38.25" spans="1:5">
+    <row r="15" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
-        <v>45677.523275463</v>
+        <v>45677.523275462998</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>83</v>
@@ -2667,9 +2238,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" ht="38.25" spans="1:5">
+    <row r="16" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
-        <v>45678.4881018518</v>
+        <v>45678.488101851799</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>85</v>
@@ -2684,9 +2255,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" ht="38.25" spans="1:5">
+    <row r="17" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
-        <v>45684.5324768519</v>
+        <v>45684.532476851899</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>87</v>
@@ -2701,9 +2272,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" ht="38.25" spans="1:5">
+    <row r="18" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
-        <v>45686.4973263889</v>
+        <v>45686.497326388897</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>88</v>
@@ -2718,7 +2289,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" ht="38.25" spans="1:5">
+    <row r="19" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>45686.6882638889</v>
       </c>
@@ -2735,9 +2306,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" ht="38.25" spans="1:5">
+    <row r="20" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
-        <v>45687.4878472222</v>
+        <v>45687.487847222197</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>90</v>
@@ -2752,7 +2323,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" ht="38.25" spans="1:5">
+    <row r="21" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>45687.5243402778</v>
       </c>
@@ -2769,9 +2340,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" ht="38.25" spans="1:5">
+    <row r="22" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
-        <v>45687.5827777778</v>
+        <v>45687.582777777803</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>92</v>
@@ -2786,9 +2357,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" ht="38.25" spans="1:5">
+    <row r="23" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
-        <v>45671.690462963</v>
+        <v>45671.690462963001</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>93</v>
@@ -2803,9 +2374,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" ht="38.25" spans="1:5">
+    <row r="24" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
-        <v>45673.4192939815</v>
+        <v>45673.419293981497</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>94</v>
@@ -2820,9 +2391,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" ht="38.25" spans="1:5">
+    <row r="25" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
-        <v>45673.5034953704</v>
+        <v>45673.503495370402</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>95</v>
@@ -2837,9 +2408,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" ht="38.25" spans="1:5">
+    <row r="26" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A26" s="19">
-        <v>45674.4599537037</v>
+        <v>45674.459953703699</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>96</v>
@@ -2854,9 +2425,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" ht="38.25" spans="1:5">
+    <row r="27" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
-        <v>45674.5265740741</v>
+        <v>45674.526574074102</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>97</v>
@@ -2871,9 +2442,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" ht="38.25" spans="1:5">
+    <row r="28" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
-        <v>45679.4994907407</v>
+        <v>45679.499490740702</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>98</v>
@@ -2888,9 +2459,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" ht="38.25" spans="1:5">
+    <row r="29" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
-        <v>45679.5917824074</v>
+        <v>45679.591782407399</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>99</v>
@@ -2905,9 +2476,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" ht="25.75" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="19">
-        <v>45691.4653472222</v>
+        <v>45691.465347222198</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>101</v>
@@ -2922,7 +2493,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" ht="38.25" spans="1:5">
+    <row r="31" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
         <v>45693.4525810185</v>
       </c>
@@ -2939,9 +2510,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" ht="25.75" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="19">
-        <v>45670.6703356481</v>
+        <v>45670.670335648101</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>104</v>
@@ -2956,9 +2527,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" ht="25.75" spans="1:5">
+    <row r="33" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
-        <v>45672.7329513889</v>
+        <v>45672.732951388898</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>106</v>
@@ -2973,7 +2544,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" ht="25.75" spans="1:5">
+    <row r="34" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A34" s="19">
         <v>45674.7663888889</v>
       </c>
@@ -2990,9 +2561,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" ht="25.75" spans="1:5">
+    <row r="35" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
-        <v>45677.6064351852</v>
+        <v>45677.606435185196</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>109</v>
@@ -3007,9 +2578,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" ht="25.75" spans="1:5">
+    <row r="36" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
-        <v>45679.6773263889</v>
+        <v>45679.677326388897</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>110</v>
@@ -3024,9 +2595,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" ht="25.75" spans="1:5">
+    <row r="37" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
-        <v>45680.6622106481</v>
+        <v>45680.662210648101</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>111</v>
@@ -3041,9 +2612,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" ht="25.75" spans="1:5">
+    <row r="38" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
-        <v>45684.4140972222</v>
+        <v>45684.414097222201</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>112</v>
@@ -3058,9 +2629,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" ht="25.75" spans="1:5">
+    <row r="39" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
-        <v>45684.6111689815</v>
+        <v>45684.611168981501</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>113</v>
@@ -3075,9 +2646,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" ht="25.75" spans="1:5">
+    <row r="40" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A40" s="19">
-        <v>45684.7481018519</v>
+        <v>45684.748101851903</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>114</v>
@@ -3092,7 +2663,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" ht="25.75" spans="1:5">
+    <row r="41" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A41" s="23">
         <v>45685.4040046296</v>
       </c>
@@ -3110,10 +2681,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
     <sortCondition ref="E1:E41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allis\OneDrive\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saphi\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78C9AB-F870-4816-905B-4AA23FDDD50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B86444E-4EBA-458A-9BD4-B754027DA10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1052,19 +1052,19 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D15" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="7.703125" customWidth="1"/>
-    <col min="3" max="3" width="10.703125" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.29296875" customWidth="1"/>
-    <col min="8" max="8" width="15.1171875" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1290,13 +1290,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12">
         <v>60</v>
       </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
@@ -1310,13 +1313,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
         <v>75</v>
       </c>
+      <c r="C13">
+        <v>48.75</v>
+      </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
@@ -1330,13 +1336,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14">
         <v>81.25</v>
       </c>
+      <c r="C14">
+        <v>58.75</v>
+      </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
@@ -1350,13 +1359,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15">
         <v>73.75</v>
       </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
@@ -1370,13 +1382,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16">
         <v>85</v>
       </c>
+      <c r="C16">
+        <v>66.25</v>
+      </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
@@ -1390,13 +1405,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17">
         <v>86.25</v>
       </c>
+      <c r="C17">
+        <v>55</v>
+      </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
@@ -1410,13 +1428,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18">
         <v>77.5</v>
       </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
@@ -1430,13 +1451,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19">
         <v>62.5</v>
       </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
@@ -1450,13 +1474,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20">
         <v>60</v>
       </c>
+      <c r="C20">
+        <v>53.75</v>
+      </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
@@ -1470,12 +1497,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1498,7 +1525,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1521,7 +1548,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1544,7 +1571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1567,7 +1594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1590,7 +1617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1613,7 +1640,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1636,7 +1663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1659,7 +1686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1682,7 +1709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1705,7 +1732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1731,7 +1758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1757,7 +1784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1783,7 +1810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1809,7 +1836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1835,7 +1862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1861,7 +1888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1887,7 +1914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -1913,7 +1940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -1939,7 +1966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1978,12 +2005,12 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.41015625" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="74" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2000,7 +2027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>45677.755439814799</v>
       </c>
@@ -2017,7 +2044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>45678.654305555603</v>
       </c>
@@ -2034,7 +2061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>45680.740162037</v>
       </c>
@@ -2051,7 +2078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>45680.740995370397</v>
       </c>
@@ -2068,7 +2095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>45680.742083333302</v>
       </c>
@@ -2085,7 +2112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>45680.743252314802</v>
       </c>
@@ -2102,7 +2129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>45681.411643518499</v>
       </c>
@@ -2119,7 +2146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>45681.472037036998</v>
       </c>
@@ -2136,7 +2163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>45685.754340277803</v>
       </c>
@@ -2153,7 +2180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>45685.753680555601</v>
       </c>
@@ -2170,7 +2197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>45687.719953703701</v>
       </c>
@@ -2187,7 +2214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>45673.629641203697</v>
       </c>
@@ -2204,7 +2231,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>45677.460659722201</v>
       </c>
@@ -2221,7 +2248,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>45677.523275462998</v>
       </c>
@@ -2238,7 +2265,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>45678.488101851799</v>
       </c>
@@ -2255,7 +2282,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>45684.532476851899</v>
       </c>
@@ -2272,7 +2299,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>45686.497326388897</v>
       </c>
@@ -2289,7 +2316,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>45686.6882638889</v>
       </c>
@@ -2306,7 +2333,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>45687.487847222197</v>
       </c>
@@ -2323,7 +2350,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>45687.5243402778</v>
       </c>
@@ -2340,7 +2367,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>45687.582777777803</v>
       </c>
@@ -2357,7 +2384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>45671.690462963001</v>
       </c>
@@ -2374,7 +2401,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>45673.419293981497</v>
       </c>
@@ -2391,7 +2418,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>45673.503495370402</v>
       </c>
@@ -2408,7 +2435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>45674.459953703699</v>
       </c>
@@ -2425,7 +2452,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>45674.526574074102</v>
       </c>
@@ -2442,7 +2469,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
         <v>45679.499490740702</v>
       </c>
@@ -2459,7 +2486,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>45679.591782407399</v>
       </c>
@@ -2476,7 +2503,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="19">
         <v>45691.465347222198</v>
       </c>
@@ -2493,7 +2520,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="37" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>45693.4525810185</v>
       </c>
@@ -2510,7 +2537,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="19">
         <v>45670.670335648101</v>
       </c>
@@ -2527,7 +2554,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>45672.732951388898</v>
       </c>
@@ -2544,7 +2571,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="19">
         <v>45674.7663888889</v>
       </c>
@@ -2561,7 +2588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>45677.606435185196</v>
       </c>
@@ -2578,7 +2605,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
         <v>45679.677326388897</v>
       </c>
@@ -2595,7 +2622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>45680.662210648101</v>
       </c>
@@ -2612,7 +2639,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
         <v>45684.414097222201</v>
       </c>
@@ -2629,7 +2656,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>45684.611168981501</v>
       </c>
@@ -2646,7 +2673,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="19">
         <v>45684.748101851903</v>
       </c>
@@ -2663,7 +2690,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="23">
         <v>45685.4040046296</v>
       </c>

--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saphi\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B86444E-4EBA-458A-9BD4-B754027DA10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79EE5A4-7D47-465F-B98E-4E392720855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D14:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1300,6 +1300,9 @@
       <c r="C12">
         <v>35</v>
       </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
@@ -1323,6 +1326,9 @@
       <c r="C13">
         <v>48.75</v>
       </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
@@ -1346,6 +1352,9 @@
       <c r="C14">
         <v>58.75</v>
       </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
@@ -1369,6 +1378,9 @@
       <c r="C15">
         <v>60</v>
       </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
@@ -1392,6 +1404,9 @@
       <c r="C16">
         <v>66.25</v>
       </c>
+      <c r="D16">
+        <v>62.5</v>
+      </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
@@ -1415,6 +1430,9 @@
       <c r="C17">
         <v>55</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
@@ -1438,6 +1456,9 @@
       <c r="C18">
         <v>55</v>
       </c>
+      <c r="D18">
+        <v>93.75</v>
+      </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
@@ -1461,6 +1482,9 @@
       <c r="C19">
         <v>60</v>
       </c>
+      <c r="D19">
+        <v>87.5</v>
+      </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
@@ -1483,6 +1507,9 @@
       </c>
       <c r="C20">
         <v>53.75</v>
+      </c>
+      <c r="D20">
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>

--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saphi\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9ed0da5975fdbf9/Documentos/GitHub/ETLR24-25/experiment/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79EE5A4-7D47-465F-B98E-4E392720855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{E79EE5A4-7D47-465F-B98E-4E392720855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE847739-5CB5-4727-B2D8-721F9001722A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="119">
   <si>
     <t>Subject</t>
   </si>
@@ -384,26 +384,23 @@
     <t>WH2S0MA14</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turkish </t>
-  </si>
-  <si>
-    <t>PERSIAN</t>
-  </si>
-  <si>
     <t>Korean</t>
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +419,13 @@
       <color rgb="FF434343"/>
       <name val="Roboto"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -669,8 +673,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -752,10 +757,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1051,20 +1057,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1210,7 +1214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1524,12 +1528,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1537,10 +1541,13 @@
         <v>75</v>
       </c>
       <c r="C22" s="27">
-        <v>0.53749999999999998</v>
+        <v>53.75</v>
+      </c>
+      <c r="D22">
+        <v>0.125</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>28</v>
@@ -1549,10 +1556,10 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1560,10 +1567,13 @@
         <v>61.25</v>
       </c>
       <c r="C23" s="28">
-        <v>0.4</v>
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>0.5625</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F23">
         <v>25</v>
@@ -1572,21 +1582,24 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24">
         <v>82.5</v>
       </c>
-      <c r="C24" s="28">
-        <v>0.5</v>
+      <c r="C24" s="27">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>0.9375</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>24</v>
@@ -1598,18 +1611,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25">
         <v>77.5</v>
       </c>
-      <c r="C25" s="28">
-        <v>0.8</v>
+      <c r="C25" s="27">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>0.875</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F25">
         <v>27</v>
@@ -1621,7 +1637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1629,10 +1645,13 @@
         <v>57.5</v>
       </c>
       <c r="C26" s="27">
-        <v>0.48749999999999999</v>
+        <v>48.75</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F26">
         <v>28</v>
@@ -1644,7 +1663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1652,10 +1671,13 @@
         <v>66.25</v>
       </c>
       <c r="C27" s="27">
-        <v>0.67500000000000004</v>
+        <v>67.5</v>
+      </c>
+      <c r="D27">
+        <v>0.875</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F27">
         <v>29</v>
@@ -1664,21 +1686,24 @@
         <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28">
         <v>91.25</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="27">
         <v>68</v>
       </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>24</v>
@@ -1690,18 +1715,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29">
         <v>65</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
+        <v>50</v>
+      </c>
+      <c r="D29">
         <v>0.5</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F29">
         <v>25</v>
@@ -1713,7 +1741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1721,10 +1749,13 @@
         <v>70</v>
       </c>
       <c r="C30" s="27">
-        <v>0.58750000000000002</v>
+        <v>58.75</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>23</v>
@@ -1736,18 +1767,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="B31">
         <v>81.25</v>
       </c>
-      <c r="C31" s="28">
-        <v>0.75</v>
+      <c r="C31" s="27">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>0.1875</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <v>27</v>
@@ -1756,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1785,7 +1819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1811,7 +1845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1837,7 +1871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1863,7 +1897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1889,7 +1923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1915,7 +1949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1941,7 +1975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -1967,7 +2001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -1993,7 +2027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -2032,12 +2066,12 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="78" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2054,7 +2088,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45677.755439814799</v>
       </c>
@@ -2071,7 +2105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45678.654305555603</v>
       </c>
@@ -2088,7 +2122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>45680.740162037</v>
       </c>
@@ -2105,7 +2139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45680.740995370397</v>
       </c>
@@ -2122,7 +2156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>45680.742083333302</v>
       </c>
@@ -2139,7 +2173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45680.743252314802</v>
       </c>
@@ -2156,7 +2190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>45681.411643518499</v>
       </c>
@@ -2173,7 +2207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45681.472037036998</v>
       </c>
@@ -2190,7 +2224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>45685.754340277803</v>
       </c>
@@ -2207,7 +2241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45685.753680555601</v>
       </c>
@@ -2224,7 +2258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>45687.719953703701</v>
       </c>
@@ -2241,7 +2275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>45673.629641203697</v>
       </c>
@@ -2258,7 +2292,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>45677.460659722201</v>
       </c>
@@ -2275,7 +2309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45677.523275462998</v>
       </c>
@@ -2292,7 +2326,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>45678.488101851799</v>
       </c>
@@ -2309,7 +2343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>45684.532476851899</v>
       </c>
@@ -2326,7 +2360,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>45686.497326388897</v>
       </c>
@@ -2343,7 +2377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>45686.6882638889</v>
       </c>
@@ -2360,7 +2394,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>45687.487847222197</v>
       </c>
@@ -2377,7 +2411,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>45687.5243402778</v>
       </c>
@@ -2394,7 +2428,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>45687.582777777803</v>
       </c>
@@ -2411,7 +2445,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>45671.690462963001</v>
       </c>
@@ -2428,7 +2462,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>45673.419293981497</v>
       </c>
@@ -2445,7 +2479,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>45673.503495370402</v>
       </c>
@@ -2462,7 +2496,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>45674.459953703699</v>
       </c>
@@ -2479,7 +2513,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>45674.526574074102</v>
       </c>
@@ -2496,7 +2530,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>45679.499490740702</v>
       </c>
@@ -2513,7 +2547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>45679.591782407399</v>
       </c>
@@ -2530,7 +2564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>45691.465347222198</v>
       </c>
@@ -2547,7 +2581,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>45693.4525810185</v>
       </c>
@@ -2564,7 +2598,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>45670.670335648101</v>
       </c>
@@ -2581,7 +2615,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>45672.732951388898</v>
       </c>
@@ -2598,7 +2632,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>45674.7663888889</v>
       </c>
@@ -2615,7 +2649,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>45677.606435185196</v>
       </c>
@@ -2632,7 +2666,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>45679.677326388897</v>
       </c>
@@ -2649,7 +2683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>45680.662210648101</v>
       </c>
@@ -2666,7 +2700,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>45684.414097222201</v>
       </c>
@@ -2683,7 +2717,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>45684.611168981501</v>
       </c>
@@ -2700,7 +2734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>45684.748101851903</v>
       </c>
@@ -2717,7 +2751,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>45685.4040046296</v>
       </c>

--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9ed0da5975fdbf9/Documentos/GitHub/ETLR24-25/experiment/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\allis\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{E79EE5A4-7D47-465F-B98E-4E392720855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE847739-5CB5-4727-B2D8-721F9001722A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD33187-BC48-42F8-B17D-8E74109E1445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="118">
   <si>
     <t>Subject</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>sub_19</t>
-  </si>
-  <si>
-    <t>sub_20</t>
   </si>
   <si>
     <t>sub_21</t>
@@ -398,7 +395,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -675,9 +672,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -757,11 +754,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1055,20 +1051,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1134,7 +1132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1154,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1174,7 +1172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1214,7 +1212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1254,7 +1252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1450,7 +1448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1502,7 +1500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1528,176 +1526,197 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>53.75</v>
+      </c>
+      <c r="D21">
+        <v>0.125</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>61.25</v>
       </c>
       <c r="C22" s="27">
-        <v>53.75</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>0.125</v>
+        <v>0.5625</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>39</v>
       </c>
       <c r="B23">
-        <v>61.25</v>
-      </c>
-      <c r="C23" s="28">
-        <v>40</v>
+        <v>82.5</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>0.5625</v>
+        <v>0.9375</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24">
-        <v>82.5</v>
-      </c>
-      <c r="C24" s="27">
-        <v>50</v>
+        <v>77.5</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>0.9375</v>
+        <v>0.875</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25">
-        <v>77.5</v>
-      </c>
-      <c r="C25" s="27">
-        <v>80</v>
+        <v>57.5</v>
+      </c>
+      <c r="C25">
+        <v>48.75</v>
       </c>
       <c r="D25">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>42</v>
       </c>
       <c r="B26">
-        <v>57.5</v>
-      </c>
-      <c r="C26" s="27">
-        <v>48.75</v>
+        <v>66.25</v>
+      </c>
+      <c r="C26">
+        <v>67.5</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>43</v>
       </c>
       <c r="B27">
-        <v>66.25</v>
-      </c>
-      <c r="C27" s="27">
-        <v>67.5</v>
+        <v>91.25</v>
+      </c>
+      <c r="C27">
+        <v>68</v>
       </c>
       <c r="D27">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28">
-        <v>91.25</v>
-      </c>
-      <c r="C28" s="27">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
       </c>
       <c r="D28">
         <v>0.5</v>
@@ -1706,351 +1725,325 @@
         <v>14</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29">
-        <v>65</v>
-      </c>
-      <c r="C29" s="27">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>58.75</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>46</v>
       </c>
       <c r="B30">
-        <v>70</v>
-      </c>
-      <c r="C30" s="27">
-        <v>58.75</v>
+        <v>81.25</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.1875</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="B31">
-        <v>81.25</v>
-      </c>
-      <c r="C31" s="27">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>63.75</v>
       </c>
       <c r="D31">
-        <v>0.1875</v>
+        <v>56.25</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31">
+        <v>28</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
         <v>27</v>
       </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>48</v>
       </c>
       <c r="B32">
-        <v>80</v>
+        <v>72.5</v>
       </c>
       <c r="C32">
-        <v>63.75</v>
+        <v>38.75</v>
       </c>
       <c r="D32">
-        <v>56.25</v>
+        <v>93.75</v>
       </c>
       <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>85</v>
+      </c>
+      <c r="C33">
+        <v>48.75</v>
+      </c>
+      <c r="D33">
+        <v>68.75</v>
+      </c>
+      <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="F32">
-        <v>28</v>
-      </c>
-      <c r="G32">
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
         <v>10</v>
       </c>
-      <c r="H32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33">
-        <v>72.5</v>
-      </c>
-      <c r="C33">
-        <v>38.75</v>
-      </c>
-      <c r="D33">
-        <v>93.75</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>24</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-      <c r="H33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>51</v>
       </c>
       <c r="B34">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C34">
-        <v>48.75</v>
+        <v>68.75</v>
       </c>
       <c r="D34">
-        <v>68.75</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
       <c r="F34">
+        <v>23</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>92.5</v>
+      </c>
+      <c r="C35">
+        <v>43.75</v>
+      </c>
+      <c r="D35">
         <v>25</v>
       </c>
-      <c r="G34">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>68.75</v>
-      </c>
-      <c r="D35">
-        <v>75</v>
-      </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <v>23</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>54</v>
       </c>
       <c r="B36">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>71.25</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>27</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>87.5</v>
+      </c>
+      <c r="C37">
+        <v>51.25</v>
+      </c>
+      <c r="D37">
+        <v>93.75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38">
         <v>92.5</v>
       </c>
-      <c r="C36">
-        <v>43.75</v>
-      </c>
-      <c r="D36">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36">
-        <v>23</v>
-      </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-      <c r="H36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37">
-        <v>80</v>
-      </c>
-      <c r="C37">
-        <v>71.25</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37">
-        <v>27</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38">
+      <c r="C38">
+        <v>68.75</v>
+      </c>
+      <c r="D38">
         <v>87.5</v>
-      </c>
-      <c r="C38">
-        <v>51.25</v>
-      </c>
-      <c r="D38">
-        <v>93.75</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39">
-        <v>92.5</v>
+        <v>63.75</v>
       </c>
       <c r="C39">
-        <v>68.75</v>
+        <v>36.25</v>
       </c>
       <c r="D39">
-        <v>87.5</v>
+        <v>93.75</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F39">
         <v>27</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>61</v>
       </c>
       <c r="B40">
-        <v>63.75</v>
+        <v>77.5</v>
       </c>
       <c r="C40">
-        <v>36.25</v>
+        <v>58.75</v>
       </c>
       <c r="D40">
         <v>93.75</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41">
-        <v>77.5</v>
-      </c>
-      <c r="C41">
-        <v>58.75</v>
-      </c>
-      <c r="D41">
-        <v>93.75</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41">
-        <v>26</v>
-      </c>
-      <c r="G41">
-        <v>7</v>
-      </c>
-      <c r="H41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2062,41 +2055,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>45677.755439814799</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D2" s="6">
         <v>75</v>
@@ -2105,15 +2098,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>45678.654305555603</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="10">
         <v>61.25</v>
@@ -2122,15 +2115,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>45680.740162037</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="14">
         <v>61.25</v>
@@ -2139,15 +2132,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>45680.740995370397</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="10">
         <v>82.5</v>
@@ -2156,15 +2149,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>45680.742083333302</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="14">
         <v>77.5</v>
@@ -2173,15 +2166,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>45680.743252314802</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="10">
         <v>57.5</v>
@@ -2190,15 +2183,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>45681.411643518499</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="14">
         <v>66.25</v>
@@ -2207,15 +2200,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>45681.472037036998</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D9" s="10">
         <v>91.25</v>
@@ -2224,15 +2217,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>45685.754340277803</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="14">
         <v>70</v>
@@ -2241,15 +2234,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>45685.753680555601</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="10">
         <v>65</v>
@@ -2258,15 +2251,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>45687.719953703701</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="14">
         <v>81.25</v>
@@ -2275,15 +2268,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>45673.629641203697</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="D13" s="18">
         <v>72.5</v>
@@ -2292,15 +2285,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>45677.460659722201</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="14">
         <v>82.5</v>
@@ -2309,49 +2302,49 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>45677.523275462998</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="E15" s="11">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>45678.488101851799</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="E16" s="15">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>45684.532476851899</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="10">
         <v>75</v>
@@ -2360,15 +2353,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>45686.497326388897</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="21">
         <v>47.5</v>
@@ -2377,15 +2370,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>45686.6882638889</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="18">
         <v>68.75</v>
@@ -2394,15 +2387,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>45687.487847222197</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="21">
         <v>67.5</v>
@@ -2411,15 +2404,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>45687.5243402778</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="18">
         <v>67.5</v>
@@ -2428,15 +2421,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>45687.582777777803</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="21">
         <v>62.5</v>
@@ -2445,15 +2438,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>45671.690462963001</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="22">
         <v>0.6</v>
@@ -2462,15 +2455,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>45673.419293981497</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="14">
         <v>75</v>
@@ -2479,15 +2472,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>45673.503495370402</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="10">
         <v>81.25</v>
@@ -2496,15 +2489,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>45674.459953703699</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="21">
         <v>73.75</v>
@@ -2513,15 +2506,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>45674.526574074102</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="18">
         <v>85</v>
@@ -2530,15 +2523,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
         <v>45679.499490740702</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="14">
         <v>86.25</v>
@@ -2547,15 +2540,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>45679.591782407399</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="D29" s="10">
         <v>77.5</v>
@@ -2564,15 +2557,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="19">
         <v>45691.465347222198</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>102</v>
       </c>
       <c r="D30" s="21">
         <v>62.5</v>
@@ -2581,15 +2574,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>45693.4525810185</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="18">
         <v>60</v>
@@ -2598,15 +2591,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="19">
         <v>45670.670335648101</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="D32" s="21">
         <v>80</v>
@@ -2615,15 +2608,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>45672.732951388898</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="D33" s="10">
         <v>72.5</v>
@@ -2632,15 +2625,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="19">
         <v>45674.7663888889</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="21">
         <v>85</v>
@@ -2649,15 +2642,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>45677.606435185196</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="18">
         <v>100</v>
@@ -2666,15 +2659,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
         <v>45679.677326388897</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="14">
         <v>92.5</v>
@@ -2683,15 +2676,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>45680.662210648101</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="10">
         <v>80</v>
@@ -2700,15 +2693,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
         <v>45684.414097222201</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="14">
         <v>87.5</v>
@@ -2717,15 +2710,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>45684.611168981501</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" s="18">
         <v>92.5</v>
@@ -2734,15 +2727,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="19">
         <v>45684.748101851903</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="21">
         <v>63.75</v>
@@ -2751,15 +2744,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="23">
         <v>45685.4040046296</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" s="25">
         <v>77.5</v>

--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saphi\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damlanurimirzalioglu/Documents/GitHub/ETLR24-25/experiment/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B86444E-4EBA-458A-9BD4-B754027DA10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1839468-3A4C-9743-B5F5-8167A754C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +422,12 @@
       <color rgb="FF434343"/>
       <name val="Roboto"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -672,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -754,6 +760,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,19 +1059,19 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D14:D15"/>
+      <selection activeCell="K2" sqref="K2:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,13 +1097,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>72.5</v>
       </c>
+      <c r="C2">
+        <f>39/80*100</f>
+        <v>48.75</v>
+      </c>
+      <c r="D2">
+        <f>10/16*100</f>
+        <v>62.5</v>
+      </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
@@ -1110,13 +1125,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
         <v>82.5</v>
       </c>
+      <c r="C3">
+        <f>29/80*100</f>
+        <v>36.25</v>
+      </c>
+      <c r="D3">
+        <f>15/16*100</f>
+        <v>93.75</v>
+      </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
@@ -1130,13 +1153,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
         <v>73.75</v>
       </c>
+      <c r="C4">
+        <f>54/80*100</f>
+        <v>67.5</v>
+      </c>
+      <c r="D4">
+        <f>13/16*100</f>
+        <v>81.25</v>
+      </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
@@ -1150,13 +1181,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>72.5</v>
       </c>
+      <c r="C5">
+        <f>39/80*100</f>
+        <v>48.75</v>
+      </c>
+      <c r="D5">
+        <f>11/16*100</f>
+        <v>68.75</v>
+      </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
@@ -1170,13 +1209,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6">
         <v>75</v>
       </c>
+      <c r="C6">
+        <f>39/80*100</f>
+        <v>48.75</v>
+      </c>
+      <c r="D6" s="29">
+        <f>13/16*100</f>
+        <v>81.25</v>
+      </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
@@ -1190,13 +1237,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7">
         <v>47.5</v>
       </c>
+      <c r="C7">
+        <f>42/80*100</f>
+        <v>52.5</v>
+      </c>
+      <c r="D7">
+        <f>15/16*100</f>
+        <v>93.75</v>
+      </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
@@ -1210,13 +1265,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
         <v>68.75</v>
       </c>
+      <c r="C8">
+        <f>47/80*100</f>
+        <v>58.75</v>
+      </c>
+      <c r="D8">
+        <f>11/16*100</f>
+        <v>68.75</v>
+      </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
@@ -1230,13 +1293,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
         <v>67.5</v>
       </c>
+      <c r="C9">
+        <f>25/80*100</f>
+        <v>31.25</v>
+      </c>
+      <c r="D9">
+        <f>5/16*100</f>
+        <v>31.25</v>
+      </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
@@ -1250,13 +1321,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
         <v>67.5</v>
       </c>
+      <c r="C10">
+        <f>35/80*100</f>
+        <v>43.75</v>
+      </c>
+      <c r="D10">
+        <f>10/16*100</f>
+        <v>62.5</v>
+      </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
@@ -1270,13 +1349,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11">
         <v>62.5</v>
       </c>
+      <c r="C11" s="29">
+        <f>46/80*100</f>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="D11">
+        <f>15/16*100</f>
+        <v>93.75</v>
+      </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
@@ -1290,7 +1377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1313,7 +1400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1336,7 +1423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1359,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1382,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1405,7 +1492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1428,7 +1515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1451,7 +1538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1474,7 +1561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1497,12 +1584,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1525,7 +1612,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1548,7 +1635,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1571,7 +1658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1594,7 +1681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1617,7 +1704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1640,7 +1727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1663,7 +1750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1686,7 +1773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1709,7 +1796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1732,7 +1819,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1758,7 +1845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1784,7 +1871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1810,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1836,7 +1923,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1862,7 +1949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1888,7 +1975,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1914,7 +2001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -1940,7 +2027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -1966,7 +2053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1994,6 +2081,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2005,12 +2095,12 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="65" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2027,7 +2117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45677.755439814799</v>
       </c>
@@ -2044,7 +2134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>45678.654305555603</v>
       </c>
@@ -2061,7 +2151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>45680.740162037</v>
       </c>
@@ -2078,7 +2168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>45680.740995370397</v>
       </c>
@@ -2095,7 +2185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>45680.742083333302</v>
       </c>
@@ -2112,7 +2202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>45680.743252314802</v>
       </c>
@@ -2129,7 +2219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>45681.411643518499</v>
       </c>
@@ -2146,7 +2236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>45681.472037036998</v>
       </c>
@@ -2163,7 +2253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>45685.754340277803</v>
       </c>
@@ -2180,7 +2270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>45685.753680555601</v>
       </c>
@@ -2197,7 +2287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>45687.719953703701</v>
       </c>
@@ -2214,7 +2304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>45673.629641203697</v>
       </c>
@@ -2231,7 +2321,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>45677.460659722201</v>
       </c>
@@ -2248,7 +2338,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>45677.523275462998</v>
       </c>
@@ -2265,7 +2355,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>45678.488101851799</v>
       </c>
@@ -2282,7 +2372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>45684.532476851899</v>
       </c>
@@ -2299,7 +2389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>45686.497326388897</v>
       </c>
@@ -2316,7 +2406,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>45686.6882638889</v>
       </c>
@@ -2333,7 +2423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>45687.487847222197</v>
       </c>
@@ -2350,7 +2440,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>45687.5243402778</v>
       </c>
@@ -2367,7 +2457,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>45687.582777777803</v>
       </c>
@@ -2384,7 +2474,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>45671.690462963001</v>
       </c>
@@ -2401,7 +2491,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>45673.419293981497</v>
       </c>
@@ -2418,7 +2508,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>45673.503495370402</v>
       </c>
@@ -2435,7 +2525,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>45674.459953703699</v>
       </c>
@@ -2452,7 +2542,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>45674.526574074102</v>
       </c>
@@ -2469,7 +2559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>45679.499490740702</v>
       </c>
@@ -2486,7 +2576,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>45679.591782407399</v>
       </c>
@@ -2503,7 +2593,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>45691.465347222198</v>
       </c>
@@ -2520,7 +2610,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>45693.4525810185</v>
       </c>
@@ -2537,7 +2627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>45670.670335648101</v>
       </c>
@@ -2554,7 +2644,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>45672.732951388898</v>
       </c>
@@ -2571,7 +2661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>45674.7663888889</v>
       </c>
@@ -2588,7 +2678,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>45677.606435185196</v>
       </c>
@@ -2605,7 +2695,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>45679.677326388897</v>
       </c>
@@ -2622,7 +2712,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>45680.662210648101</v>
       </c>
@@ -2639,7 +2729,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>45684.414097222201</v>
       </c>
@@ -2656,7 +2746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>45684.611168981501</v>
       </c>
@@ -2673,7 +2763,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>45684.748101851903</v>
       </c>
@@ -2690,7 +2780,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
         <v>45685.4040046296</v>
       </c>

--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damlanurimirzalioglu/Documents/GitHub/ETLR24-25/experiment/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\allis\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1839468-3A4C-9743-B5F5-8167A754C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA682FB-3D62-4075-AD99-50C7EC85C127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
   <si>
     <t>Subject</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>sub_19</t>
-  </si>
-  <si>
-    <t>sub_20</t>
   </si>
   <si>
     <t>sub_21</t>
@@ -403,7 +400,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +427,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -675,10 +682,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -758,11 +766,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1056,22 +1064,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:T17"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1153,7 +1161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1181,7 +1189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1228,7 @@
         <f>39/80*100</f>
         <v>48.75</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <f>13/16*100</f>
         <v>81.25</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1265,7 +1273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1349,14 +1357,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11">
         <v>62.5</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <f>46/80*100</f>
         <v>57.499999999999993</v>
       </c>
@@ -1377,7 +1385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1387,6 +1395,9 @@
       <c r="C12">
         <v>35</v>
       </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1410,6 +1421,9 @@
       <c r="C13">
         <v>48.75</v>
       </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1433,6 +1447,9 @@
       <c r="C14">
         <v>58.75</v>
       </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +1463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1456,6 +1473,9 @@
       <c r="C15">
         <v>60</v>
       </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1479,6 +1499,9 @@
       <c r="C16">
         <v>66.25</v>
       </c>
+      <c r="D16">
+        <v>62.5</v>
+      </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
@@ -1492,7 +1515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1502,6 +1525,9 @@
       <c r="C17">
         <v>55</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
@@ -1515,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1525,6 +1551,9 @@
       <c r="C18">
         <v>55</v>
       </c>
+      <c r="D18">
+        <v>93.75</v>
+      </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +1567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1548,6 +1577,9 @@
       <c r="C19">
         <v>60</v>
       </c>
+      <c r="D19">
+        <v>87.5</v>
+      </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
@@ -1561,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1571,6 +1603,9 @@
       <c r="C20">
         <v>53.75</v>
       </c>
+      <c r="D20">
+        <v>75</v>
+      </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
@@ -1584,499 +1619,524 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>53.75</v>
+      </c>
+      <c r="D21">
+        <v>0.125</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22">
-        <v>75</v>
-      </c>
-      <c r="C22" s="27">
-        <v>0.53749999999999998</v>
+        <v>61.25</v>
+      </c>
+      <c r="C22" s="28">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>0.5625</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>39</v>
       </c>
       <c r="B23">
-        <v>61.25</v>
-      </c>
-      <c r="C23" s="28">
-        <v>0.4</v>
+        <v>82.5</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>0.9375</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24">
-        <v>82.5</v>
-      </c>
-      <c r="C24" s="28">
-        <v>0.5</v>
+        <v>77.5</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>0.875</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25">
-        <v>77.5</v>
-      </c>
-      <c r="C25" s="28">
-        <v>0.8</v>
+        <v>57.5</v>
+      </c>
+      <c r="C25">
+        <v>48.75</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>42</v>
       </c>
       <c r="B26">
-        <v>57.5</v>
-      </c>
-      <c r="C26" s="27">
-        <v>0.48749999999999999</v>
+        <v>66.25</v>
+      </c>
+      <c r="C26">
+        <v>67.5</v>
+      </c>
+      <c r="D26">
+        <v>0.875</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>43</v>
       </c>
       <c r="B27">
-        <v>66.25</v>
-      </c>
-      <c r="C27" s="27">
-        <v>0.67500000000000004</v>
+        <v>91.25</v>
+      </c>
+      <c r="C27">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28">
-        <v>91.25</v>
+        <v>65</v>
       </c>
       <c r="C28">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29">
-        <v>65</v>
-      </c>
-      <c r="C29" s="28">
-        <v>0.5</v>
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>58.75</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>46</v>
       </c>
       <c r="B30">
-        <v>70</v>
-      </c>
-      <c r="C30" s="27">
-        <v>0.58750000000000002</v>
+        <v>81.25</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>0.1875</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="B31">
-        <v>81.25</v>
-      </c>
-      <c r="C31" s="28">
-        <v>0.75</v>
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>63.75</v>
+      </c>
+      <c r="D31">
+        <v>56.25</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F31">
+        <v>28</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
         <v>27</v>
       </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>48</v>
       </c>
       <c r="B32">
-        <v>80</v>
+        <v>72.5</v>
       </c>
       <c r="C32">
-        <v>63.75</v>
+        <v>38.75</v>
       </c>
       <c r="D32">
-        <v>56.25</v>
+        <v>93.75</v>
       </c>
       <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>85</v>
+      </c>
+      <c r="C33">
+        <v>48.75</v>
+      </c>
+      <c r="D33">
+        <v>68.75</v>
+      </c>
+      <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="F32">
-        <v>28</v>
-      </c>
-      <c r="G32">
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
         <v>10</v>
       </c>
-      <c r="H32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33">
-        <v>72.5</v>
-      </c>
-      <c r="C33">
-        <v>38.75</v>
-      </c>
-      <c r="D33">
-        <v>93.75</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>24</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-      <c r="H33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>51</v>
       </c>
       <c r="B34">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C34">
-        <v>48.75</v>
+        <v>68.75</v>
       </c>
       <c r="D34">
-        <v>68.75</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
       <c r="F34">
+        <v>23</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>92.5</v>
+      </c>
+      <c r="C35">
+        <v>43.75</v>
+      </c>
+      <c r="D35">
         <v>25</v>
       </c>
-      <c r="G34">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>68.75</v>
-      </c>
-      <c r="D35">
-        <v>75</v>
-      </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <v>23</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>54</v>
       </c>
       <c r="B36">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>71.25</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>27</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>87.5</v>
+      </c>
+      <c r="C37">
+        <v>51.25</v>
+      </c>
+      <c r="D37">
+        <v>93.75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38">
         <v>92.5</v>
       </c>
-      <c r="C36">
-        <v>43.75</v>
-      </c>
-      <c r="D36">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36">
-        <v>23</v>
-      </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-      <c r="H36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37">
-        <v>80</v>
-      </c>
-      <c r="C37">
-        <v>71.25</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37">
-        <v>27</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38">
+      <c r="C38">
+        <v>68.75</v>
+      </c>
+      <c r="D38">
         <v>87.5</v>
-      </c>
-      <c r="C38">
-        <v>51.25</v>
-      </c>
-      <c r="D38">
-        <v>93.75</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39">
-        <v>92.5</v>
+        <v>63.75</v>
       </c>
       <c r="C39">
-        <v>68.75</v>
+        <v>36.25</v>
       </c>
       <c r="D39">
-        <v>87.5</v>
+        <v>93.75</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F39">
         <v>27</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>61</v>
       </c>
       <c r="B40">
-        <v>63.75</v>
+        <v>77.5</v>
       </c>
       <c r="C40">
-        <v>36.25</v>
+        <v>58.75</v>
       </c>
       <c r="D40">
         <v>93.75</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41">
-        <v>77.5</v>
-      </c>
-      <c r="C41">
-        <v>58.75</v>
-      </c>
-      <c r="D41">
-        <v>93.75</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41">
-        <v>26</v>
-      </c>
-      <c r="G41">
-        <v>7</v>
-      </c>
-      <c r="H41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2095,37 +2155,37 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>45677.755439814799</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D2" s="6">
         <v>75</v>
@@ -2134,15 +2194,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>45678.654305555603</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="10">
         <v>61.25</v>
@@ -2151,15 +2211,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>45680.740162037</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="14">
         <v>61.25</v>
@@ -2168,15 +2228,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>45680.740995370397</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="10">
         <v>82.5</v>
@@ -2185,15 +2245,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>45680.742083333302</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="14">
         <v>77.5</v>
@@ -2202,15 +2262,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>45680.743252314802</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="10">
         <v>57.5</v>
@@ -2219,15 +2279,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>45681.411643518499</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="14">
         <v>66.25</v>
@@ -2236,15 +2296,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>45681.472037036998</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D9" s="10">
         <v>91.25</v>
@@ -2253,15 +2313,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>45685.754340277803</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="14">
         <v>70</v>
@@ -2270,15 +2330,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>45685.753680555601</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="10">
         <v>65</v>
@@ -2287,15 +2347,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>45687.719953703701</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="14">
         <v>81.25</v>
@@ -2304,15 +2364,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>45673.629641203697</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="D13" s="18">
         <v>72.5</v>
@@ -2321,15 +2381,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>45677.460659722201</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="14">
         <v>82.5</v>
@@ -2338,49 +2398,49 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>45677.523275462998</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="E15" s="11">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>45678.488101851799</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="E16" s="15">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>45684.532476851899</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="10">
         <v>75</v>
@@ -2389,15 +2449,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>45686.497326388897</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="21">
         <v>47.5</v>
@@ -2406,15 +2466,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>45686.6882638889</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="18">
         <v>68.75</v>
@@ -2423,15 +2483,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>45687.487847222197</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="21">
         <v>67.5</v>
@@ -2440,15 +2500,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>45687.5243402778</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="18">
         <v>67.5</v>
@@ -2457,15 +2517,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>45687.582777777803</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="21">
         <v>62.5</v>
@@ -2474,15 +2534,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>45671.690462963001</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="22">
         <v>0.6</v>
@@ -2491,15 +2551,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>45673.419293981497</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="14">
         <v>75</v>
@@ -2508,15 +2568,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>45673.503495370402</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="10">
         <v>81.25</v>
@@ -2525,15 +2585,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>45674.459953703699</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="21">
         <v>73.75</v>
@@ -2542,15 +2602,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>45674.526574074102</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="18">
         <v>85</v>
@@ -2559,15 +2619,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
         <v>45679.499490740702</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="14">
         <v>86.25</v>
@@ -2576,15 +2636,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>45679.591782407399</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="D29" s="10">
         <v>77.5</v>
@@ -2593,15 +2653,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="19">
         <v>45691.465347222198</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>102</v>
       </c>
       <c r="D30" s="21">
         <v>62.5</v>
@@ -2610,15 +2670,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>45693.4525810185</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="18">
         <v>60</v>
@@ -2627,15 +2687,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="19">
         <v>45670.670335648101</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="D32" s="21">
         <v>80</v>
@@ -2644,15 +2704,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>45672.732951388898</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="D33" s="10">
         <v>72.5</v>
@@ -2661,15 +2721,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A34" s="19">
         <v>45674.7663888889</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="21">
         <v>85</v>
@@ -2678,15 +2738,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>45677.606435185196</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="18">
         <v>100</v>
@@ -2695,15 +2755,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
         <v>45679.677326388897</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="14">
         <v>92.5</v>
@@ -2712,15 +2772,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>45680.662210648101</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="10">
         <v>80</v>
@@ -2729,15 +2789,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
         <v>45684.414097222201</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="14">
         <v>87.5</v>
@@ -2746,15 +2806,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>45684.611168981501</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" s="18">
         <v>92.5</v>
@@ -2763,15 +2823,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="19">
         <v>45684.748101851903</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="21">
         <v>63.75</v>
@@ -2780,15 +2840,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="23">
         <v>45685.4040046296</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" s="25">
         <v>77.5</v>

--- a/experiment/Analysis/secondary_measures.xlsx
+++ b/experiment/Analysis/secondary_measures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\allis\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allis\OneDrive\Documents\GitHub\ETLR24-25\experiment\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA682FB-3D62-4075-AD99-50C7EC85C127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95626645-1DAA-459F-B648-6EAF067D6DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
   <si>
     <t>Subject</t>
   </si>
@@ -379,15 +379,6 @@
   </si>
   <si>
     <t>WH2S0MA14</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turkish </t>
-  </si>
-  <si>
-    <t>PERSIAN</t>
   </si>
   <si>
     <t>Korean</t>
@@ -1067,19 +1058,19 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="7.64453125" customWidth="1"/>
+    <col min="3" max="3" width="10.64453125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="11.1171875" customWidth="1"/>
+    <col min="8" max="8" width="15.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1245,7 +1236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1329,7 +1320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1357,7 +1348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1411,7 +1402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1437,7 +1428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1463,7 +1454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1515,7 +1506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1541,7 +1532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +1558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1593,7 +1584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1619,7 +1610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1633,7 +1624,7 @@
         <v>0.125</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>28</v>
@@ -1642,10 +1633,10 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1659,7 +1650,7 @@
         <v>0.5625</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>25</v>
@@ -1668,10 +1659,10 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1685,7 +1676,7 @@
         <v>0.9375</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F23">
         <v>24</v>
@@ -1697,7 +1688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1711,7 +1702,7 @@
         <v>0.875</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>27</v>
@@ -1720,10 +1711,10 @@
         <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1737,7 +1728,7 @@
         <v>0.5</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F25">
         <v>28</v>
@@ -1749,7 +1740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1763,7 +1754,7 @@
         <v>0.875</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F26">
         <v>29</v>
@@ -1772,10 +1763,10 @@
         <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1789,7 +1780,7 @@
         <v>0.5</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F27">
         <v>24</v>
@@ -1801,7 +1792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1815,7 +1806,7 @@
         <v>0.5</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>25</v>
@@ -1827,7 +1818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1841,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F29">
         <v>23</v>
@@ -1853,7 +1844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1867,7 +1858,7 @@
         <v>0.1875</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>27</v>
@@ -1876,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1905,7 +1896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1931,7 +1922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1957,7 +1948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1983,7 +1974,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2009,7 +2000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2035,7 +2026,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -2061,7 +2052,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2087,7 +2078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -2113,7 +2104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -2155,12 +2146,12 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="14.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="74" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -2177,7 +2168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>45677.755439814799</v>
       </c>
@@ -2194,7 +2185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>45678.654305555603</v>
       </c>
@@ -2211,7 +2202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>45680.740162037</v>
       </c>
@@ -2228,7 +2219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>45680.740995370397</v>
       </c>
@@ -2245,7 +2236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>45680.742083333302</v>
       </c>
@@ -2262,7 +2253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>45680.743252314802</v>
       </c>
@@ -2279,7 +2270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>45681.411643518499</v>
       </c>
@@ -2296,7 +2287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>45681.472037036998</v>
       </c>
@@ -2313,7 +2304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>45685.754340277803</v>
       </c>
@@ -2330,7 +2321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>45685.753680555601</v>
       </c>
@@ -2347,7 +2338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>45687.719953703701</v>
       </c>
@@ -2364,7 +2355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>45673.629641203697</v>
       </c>
@@ -2381,7 +2372,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>45677.460659722201</v>
       </c>
@@ -2398,7 +2389,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>45677.523275462998</v>
       </c>
@@ -2415,7 +2406,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>45678.488101851799</v>
       </c>
@@ -2432,7 +2423,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>45684.532476851899</v>
       </c>
@@ -2449,7 +2440,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>45686.497326388897</v>
       </c>
@@ -2466,7 +2457,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>45686.6882638889</v>
       </c>
@@ -2483,7 +2474,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
         <v>45687.487847222197</v>
       </c>
@@ -2500,7 +2491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>45687.5243402778</v>
       </c>
@@ -2517,7 +2508,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
         <v>45687.582777777803</v>
       </c>
@@ -2534,7 +2525,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>45671.690462963001</v>
       </c>
@@ -2551,7 +2542,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>45673.419293981497</v>
       </c>
@@ -2568,7 +2559,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>45673.503495370402</v>
       </c>
@@ -2585,7 +2576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A26" s="19">
         <v>45674.459953703699</v>
       </c>
@@ -2602,7 +2593,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>45674.526574074102</v>
       </c>
@@ -2619,7 +2610,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>45679.499490740702</v>
       </c>
@@ -2636,7 +2627,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>45679.591782407399</v>
       </c>
@@ -2653,7 +2644,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="19">
         <v>45691.465347222198</v>
       </c>
@@ -2670,7 +2661,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="37" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
         <v>45693.4525810185</v>
       </c>
@@ -2687,7 +2678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="19">
         <v>45670.670335648101</v>
       </c>
@@ -2704,7 +2695,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <v>45672.732951388898</v>
       </c>
@@ -2721,7 +2712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A34" s="19">
         <v>45674.7663888889</v>
       </c>
@@ -2738,7 +2729,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
         <v>45677.606435185196</v>
       </c>
@@ -2755,7 +2746,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>45679.677326388897</v>
       </c>
@@ -2772,7 +2763,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
         <v>45680.662210648101</v>
       </c>
@@ -2789,7 +2780,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>45684.414097222201</v>
       </c>
@@ -2806,7 +2797,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>45684.611168981501</v>
       </c>
@@ -2823,7 +2814,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A40" s="19">
         <v>45684.748101851903</v>
       </c>
@@ -2840,7 +2831,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="24.7" x14ac:dyDescent="0.4">
       <c r="A41" s="23">
         <v>45685.4040046296</v>
       </c>
